--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -64,18 +67,15 @@
     <t>scary</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,6 +88,9 @@
     <t>great</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>social</t>
   </si>
   <si>
-    <t>’</t>
+    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -475,7 +478,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -533,13 +536,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -551,19 +554,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -575,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -583,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -601,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -625,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -633,13 +636,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -651,19 +654,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -675,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +710,13 @@
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.7017543859649122</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -725,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -733,13 +736,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -751,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.6333333333333333</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +786,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.625</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -801,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.5733333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -833,13 +836,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.675</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -851,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.5517241379310345</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -875,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -883,13 +886,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4855072463768116</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -901,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.08287795992714025</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="L10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1007</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -933,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3617021276595745</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -951,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.01536491677336748</v>
+        <v>0.0883424408014572</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>769</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -983,13 +986,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.358974358974359</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1001,7 +1004,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0.01807228915662651</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1009,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3428571428571429</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1027,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1035,13 +1062,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1538461538461539</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1053,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
